--- a/Test Cases/Test Case Template.xlsx
+++ b/Test Cases/Test Case Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Germany\Software Engineering\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Germany\Software Engineering\Team 10\team10\Test Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2DF908A-3684-4D3C-AC67-D49495E0061D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C885D3-E878-423C-A5AB-F09CAC090830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BBDFDA9F-B308-46BA-990B-95E2222DDB26}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="176">
   <si>
     <t>Project Name</t>
   </si>
@@ -643,6 +643,18 @@
   <si>
     <t>The system displays an error message 
 "Invalid search term"</t>
+  </si>
+  <si>
+    <t>User is on theflashcard trainer webpage</t>
+  </si>
+  <si>
+    <t>Traceback (most recent call last):
+  File "d:\Germany\Software Engineering\Team 10\team10\FlashCard Trainer\app.py", line 2, in &lt;module&gt;
+    from manage_decks import deck_blueprint
+ImportError: cannot import name 'deck_blueprint' from 'manage_decks' (d:\Germany\Software Engineering\Team 10\team10\FlashCard Trainer\manage_decks.py)</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
 </sst>
 </file>
@@ -716,7 +728,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -765,25 +777,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -793,11 +824,24 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1144,8 +1188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{142439C2-4A4F-4125-A1B1-034AF03278CF}">
   <dimension ref="A1:Q71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="14.25"/>
@@ -1159,1281 +1203,1286 @@
     <col min="7" max="7" width="45.73046875" style="1" customWidth="1"/>
     <col min="8" max="8" width="42.46484375" style="1" customWidth="1"/>
     <col min="9" max="9" width="2.265625" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="11" width="31.19921875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="73.06640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="31.19921875" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9.19921875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="52.9" customHeight="1">
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="25.15">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="12"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="12"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="12"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="12"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="12"/>
+      <c r="B9" s="11"/>
       <c r="C9" s="3">
         <v>45296</v>
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="12"/>
+      <c r="B10" s="11"/>
       <c r="C10" s="3">
         <v>45667</v>
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:17" s="10" customFormat="1" ht="64.5" customHeight="1">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:17" s="7" customFormat="1" ht="111.75" customHeight="1">
+      <c r="A13" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" s="7" customFormat="1" ht="57">
+      <c r="A14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-    </row>
-    <row r="14" spans="1:17" s="10" customFormat="1" ht="57">
-      <c r="A14" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="8" t="s">
+      <c r="F14" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="1:17" s="7" customFormat="1" ht="71.25">
+      <c r="A15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" s="8" t="s">
+      <c r="C15" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-    </row>
-    <row r="15" spans="1:17" s="10" customFormat="1" ht="71.25">
-      <c r="A15" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="8" t="s">
+      <c r="F15" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="1:17" s="7" customFormat="1" ht="57">
+      <c r="A16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="E15" s="8" t="s">
+      <c r="C16" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-    </row>
-    <row r="16" spans="1:17" s="10" customFormat="1" ht="57">
-      <c r="A16" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="8" t="s">
+      <c r="F16" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="1:11" s="7" customFormat="1" ht="42.75">
+      <c r="A17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-    </row>
-    <row r="17" spans="1:11" s="10" customFormat="1" ht="42.75">
-      <c r="A17" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="8" t="s">
+      <c r="C17" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="1:11" s="7" customFormat="1" ht="57">
+      <c r="A18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" s="8" t="s">
+      <c r="C18" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F17" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-    </row>
-    <row r="18" spans="1:11" s="10" customFormat="1" ht="57">
-      <c r="A18" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="8" t="s">
+      <c r="F18" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" spans="1:11" s="7" customFormat="1" ht="57">
+      <c r="A19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-    </row>
-    <row r="19" spans="1:11" s="10" customFormat="1" ht="57">
-      <c r="A19" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="8" t="s">
+      <c r="F19" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+    </row>
+    <row r="20" spans="1:11" s="7" customFormat="1" ht="57">
+      <c r="A20" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="E19" s="8" t="s">
+      <c r="C20" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G19" s="9" t="s">
+      <c r="F20" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+    </row>
+    <row r="21" spans="1:11" s="7" customFormat="1" ht="57">
+      <c r="A21" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="1:11" s="7" customFormat="1" ht="42.75">
+      <c r="A22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+    </row>
+    <row r="23" spans="1:11" s="7" customFormat="1" ht="57">
+      <c r="A23" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+    </row>
+    <row r="24" spans="1:11" s="7" customFormat="1" ht="42.75">
+      <c r="A24" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+    </row>
+    <row r="25" spans="1:11" s="7" customFormat="1" ht="42.75">
+      <c r="A25" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+    </row>
+    <row r="26" spans="1:11" s="7" customFormat="1" ht="42.75">
+      <c r="A26" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G26" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="H19" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-    </row>
-    <row r="20" spans="1:11" s="10" customFormat="1" ht="57">
-      <c r="A20" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-    </row>
-    <row r="21" spans="1:11" s="10" customFormat="1" ht="57">
-      <c r="A21" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-    </row>
-    <row r="22" spans="1:11" s="10" customFormat="1" ht="42.75">
-      <c r="A22" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-    </row>
-    <row r="23" spans="1:11" s="10" customFormat="1" ht="57">
-      <c r="A23" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-    </row>
-    <row r="24" spans="1:11" s="10" customFormat="1" ht="42.75">
-      <c r="A24" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="8" t="s">
+      <c r="H26" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+    </row>
+    <row r="27" spans="1:11" s="7" customFormat="1" ht="42.75">
+      <c r="A27" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-    </row>
-    <row r="25" spans="1:11" s="10" customFormat="1" ht="42.75">
-      <c r="A25" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="8" t="s">
+      <c r="C27" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+    </row>
+    <row r="28" spans="1:11" s="7" customFormat="1" ht="28.5">
+      <c r="A28" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-    </row>
-    <row r="26" spans="1:11" s="10" customFormat="1" ht="42.75">
-      <c r="A26" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="E26" s="8" t="s">
+      <c r="C28" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="F26" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-    </row>
-    <row r="27" spans="1:11" s="10" customFormat="1" ht="42.75">
-      <c r="A27" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-    </row>
-    <row r="28" spans="1:11" s="10" customFormat="1" ht="28.5">
-      <c r="A28" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="G28" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H28" s="8" t="s">
+      <c r="H28" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-    </row>
-    <row r="29" spans="1:11" s="10" customFormat="1" ht="28.5">
-      <c r="A29" s="8" t="s">
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+    </row>
+    <row r="29" spans="1:11" s="7" customFormat="1" ht="28.5">
+      <c r="A29" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="G29" s="8" t="s">
+      <c r="G29" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="9" t="s">
+      <c r="H29" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-    </row>
-    <row r="30" spans="1:11" s="10" customFormat="1" ht="28.5">
-      <c r="A30" s="8" t="s">
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+    </row>
+    <row r="30" spans="1:11" s="7" customFormat="1" ht="28.5">
+      <c r="A30" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="G30" s="8" t="s">
+      <c r="G30" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H30" s="9" t="s">
+      <c r="H30" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-    </row>
-    <row r="31" spans="1:11" s="10" customFormat="1" ht="42.75">
-      <c r="A31" s="8" t="s">
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+    </row>
+    <row r="31" spans="1:11" s="7" customFormat="1" ht="42.75">
+      <c r="A31" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F31" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="G31" s="8" t="s">
+      <c r="G31" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="H31" s="9" t="s">
+      <c r="H31" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-    </row>
-    <row r="32" spans="1:11" s="10" customFormat="1" ht="42.75">
-      <c r="A32" s="8" t="s">
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+    </row>
+    <row r="32" spans="1:11" s="7" customFormat="1" ht="42.75">
+      <c r="A32" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F32" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="G32" s="8" t="s">
+      <c r="G32" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="H32" s="8" t="s">
+      <c r="H32" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-    </row>
-    <row r="33" spans="1:11" s="10" customFormat="1" ht="42.75">
-      <c r="A33" s="8" t="s">
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+    </row>
+    <row r="33" spans="1:11" s="7" customFormat="1" ht="42.75">
+      <c r="A33" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="F33" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="G33" s="8" t="s">
+      <c r="G33" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="H33" s="9" t="s">
+      <c r="H33" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-    </row>
-    <row r="34" spans="1:11" s="10" customFormat="1" ht="42.75">
-      <c r="A34" s="8" t="s">
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+    </row>
+    <row r="34" spans="1:11" s="7" customFormat="1" ht="42.75">
+      <c r="A34" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="F34" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="G34" s="8" t="s">
+      <c r="G34" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="H34" s="8" t="s">
+      <c r="H34" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-    </row>
-    <row r="35" spans="1:11" s="10" customFormat="1" ht="28.5">
-      <c r="A35" s="8" t="s">
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+    </row>
+    <row r="35" spans="1:11" s="7" customFormat="1" ht="28.5">
+      <c r="A35" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="F35" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="G35" s="8" t="s">
+      <c r="G35" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H35" s="8" t="s">
+      <c r="H35" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-    </row>
-    <row r="36" spans="1:11" s="10" customFormat="1">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-    </row>
-    <row r="37" spans="1:11" s="10" customFormat="1">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-    </row>
-    <row r="38" spans="1:11" s="10" customFormat="1">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-    </row>
-    <row r="39" spans="1:11" s="10" customFormat="1">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-    </row>
-    <row r="40" spans="1:11" s="10" customFormat="1">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-    </row>
-    <row r="41" spans="1:11" s="10" customFormat="1">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-    </row>
-    <row r="42" spans="1:11" s="10" customFormat="1">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-    </row>
-    <row r="43" spans="1:11" s="10" customFormat="1">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-    </row>
-    <row r="44" spans="1:11" s="10" customFormat="1">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-    </row>
-    <row r="45" spans="1:11" s="10" customFormat="1">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-    </row>
-    <row r="46" spans="1:11" s="10" customFormat="1">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-    </row>
-    <row r="47" spans="1:11" s="10" customFormat="1">
-      <c r="A47" s="8"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
-    </row>
-    <row r="48" spans="1:11" s="10" customFormat="1">
-      <c r="A48" s="8"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-    </row>
-    <row r="49" spans="1:11" s="10" customFormat="1">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-    </row>
-    <row r="50" spans="1:11" s="10" customFormat="1">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
-    </row>
-    <row r="51" spans="1:11" s="10" customFormat="1">
-      <c r="A51" s="8"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-    </row>
-    <row r="52" spans="1:11" s="10" customFormat="1">
-      <c r="A52" s="8"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
-    </row>
-    <row r="53" spans="1:11" s="10" customFormat="1">
-      <c r="A53" s="8"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
-    </row>
-    <row r="54" spans="1:11" s="10" customFormat="1">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="8"/>
-    </row>
-    <row r="55" spans="1:11" s="10" customFormat="1">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="8"/>
-    </row>
-    <row r="56" spans="1:11" s="10" customFormat="1">
-      <c r="A56" s="8"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8"/>
-      <c r="K56" s="8"/>
-    </row>
-    <row r="57" spans="1:11" s="10" customFormat="1">
-      <c r="A57" s="8"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="8"/>
-    </row>
-    <row r="58" spans="1:11" s="10" customFormat="1">
-      <c r="A58" s="8"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="8"/>
-      <c r="K58" s="8"/>
-    </row>
-    <row r="59" spans="1:11" s="10" customFormat="1">
-      <c r="A59" s="8"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="8"/>
-    </row>
-    <row r="60" spans="1:11" s="10" customFormat="1">
-      <c r="A60" s="8"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="8"/>
-      <c r="J60" s="8"/>
-      <c r="K60" s="8"/>
-    </row>
-    <row r="61" spans="1:11" s="10" customFormat="1">
-      <c r="A61" s="8"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
-      <c r="J61" s="8"/>
-      <c r="K61" s="8"/>
-    </row>
-    <row r="62" spans="1:11" s="10" customFormat="1">
-      <c r="A62" s="8"/>
-      <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="8"/>
-      <c r="J62" s="8"/>
-      <c r="K62" s="8"/>
-    </row>
-    <row r="63" spans="1:11" s="10" customFormat="1">
-      <c r="A63" s="8"/>
-      <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8"/>
-      <c r="J63" s="8"/>
-      <c r="K63" s="8"/>
-    </row>
-    <row r="64" spans="1:11" s="10" customFormat="1">
-      <c r="A64" s="8"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="8"/>
-      <c r="J64" s="8"/>
-      <c r="K64" s="8"/>
-    </row>
-    <row r="65" spans="1:11" s="10" customFormat="1">
-      <c r="A65" s="8"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="8"/>
-      <c r="J65" s="8"/>
-      <c r="K65" s="8"/>
-    </row>
-    <row r="66" spans="1:11" s="10" customFormat="1">
-      <c r="A66" s="8"/>
-      <c r="B66" s="8"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="8"/>
-      <c r="I66" s="8"/>
-      <c r="J66" s="8"/>
-      <c r="K66" s="8"/>
-    </row>
-    <row r="67" spans="1:11" s="10" customFormat="1">
-      <c r="A67" s="8"/>
-      <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="8"/>
-      <c r="J67" s="8"/>
-      <c r="K67" s="8"/>
-    </row>
-    <row r="68" spans="1:11" s="10" customFormat="1">
-      <c r="A68" s="8"/>
-      <c r="B68" s="8"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="8"/>
-      <c r="J68" s="8"/>
-      <c r="K68" s="8"/>
-    </row>
-    <row r="69" spans="1:11" s="10" customFormat="1">
-      <c r="A69" s="8"/>
-      <c r="B69" s="8"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="8"/>
-      <c r="I69" s="8"/>
-      <c r="J69" s="8"/>
-      <c r="K69" s="8"/>
-    </row>
-    <row r="70" spans="1:11" s="10" customFormat="1">
-      <c r="A70" s="8"/>
-      <c r="B70" s="8"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="8"/>
-      <c r="I70" s="8"/>
-      <c r="J70" s="8"/>
-      <c r="K70" s="8"/>
-    </row>
-    <row r="71" spans="1:11" s="10" customFormat="1">
-      <c r="A71" s="8"/>
-      <c r="B71" s="8"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="8"/>
-      <c r="H71" s="8"/>
-      <c r="I71" s="8"/>
-      <c r="J71" s="8"/>
-      <c r="K71" s="8"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+    </row>
+    <row r="36" spans="1:11" s="7" customFormat="1">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+    </row>
+    <row r="37" spans="1:11" s="7" customFormat="1">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+    </row>
+    <row r="38" spans="1:11" s="7" customFormat="1">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+    </row>
+    <row r="39" spans="1:11" s="7" customFormat="1">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+    </row>
+    <row r="40" spans="1:11" s="7" customFormat="1">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+    </row>
+    <row r="41" spans="1:11" s="7" customFormat="1">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+    </row>
+    <row r="42" spans="1:11" s="7" customFormat="1">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+    </row>
+    <row r="43" spans="1:11" s="7" customFormat="1">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+    </row>
+    <row r="44" spans="1:11" s="7" customFormat="1">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+    </row>
+    <row r="45" spans="1:11" s="7" customFormat="1">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+    </row>
+    <row r="46" spans="1:11" s="7" customFormat="1">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+    </row>
+    <row r="47" spans="1:11" s="7" customFormat="1">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+    </row>
+    <row r="48" spans="1:11" s="7" customFormat="1">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+    </row>
+    <row r="49" spans="1:11" s="7" customFormat="1">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+    </row>
+    <row r="50" spans="1:11" s="7" customFormat="1">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+    </row>
+    <row r="51" spans="1:11" s="7" customFormat="1">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+    </row>
+    <row r="52" spans="1:11" s="7" customFormat="1">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+    </row>
+    <row r="53" spans="1:11" s="7" customFormat="1">
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+    </row>
+    <row r="54" spans="1:11" s="7" customFormat="1">
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+    </row>
+    <row r="55" spans="1:11" s="7" customFormat="1">
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+    </row>
+    <row r="56" spans="1:11" s="7" customFormat="1">
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+    </row>
+    <row r="57" spans="1:11" s="7" customFormat="1">
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+    </row>
+    <row r="58" spans="1:11" s="7" customFormat="1">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+    </row>
+    <row r="59" spans="1:11" s="7" customFormat="1">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+    </row>
+    <row r="60" spans="1:11" s="7" customFormat="1">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+    </row>
+    <row r="61" spans="1:11" s="7" customFormat="1">
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+    </row>
+    <row r="62" spans="1:11" s="7" customFormat="1">
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+    </row>
+    <row r="63" spans="1:11" s="7" customFormat="1">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
+    </row>
+    <row r="64" spans="1:11" s="7" customFormat="1">
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
+    </row>
+    <row r="65" spans="1:11" s="7" customFormat="1">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+    </row>
+    <row r="66" spans="1:11" s="7" customFormat="1">
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+    </row>
+    <row r="67" spans="1:11" s="7" customFormat="1">
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
+    </row>
+    <row r="68" spans="1:11" s="7" customFormat="1">
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="5"/>
+    </row>
+    <row r="69" spans="1:11" s="7" customFormat="1">
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
+    </row>
+    <row r="70" spans="1:11" s="7" customFormat="1">
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
+    </row>
+    <row r="71" spans="1:11" s="7" customFormat="1">
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="K13:K71">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",K13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" stopIfTrue="1" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="0" priority="5" stopIfTrue="1" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",K13)))</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
